--- a/Ref Tracker/Ref Tracker Template.xlsx
+++ b/Ref Tracker/Ref Tracker Template.xlsx
@@ -387,12 +387,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:37:16</t>
+          <t>12:20:11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -407,19 +407,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>56.88</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:37:16</t>
+          <t>12:20:11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -434,19 +434,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10:37:16</t>
+          <t>12:20:11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -461,24 +461,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:38:13</t>
+          <t>12:20:37</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sell Order</t>
+          <t>Buy Order</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -488,24 +488,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>56.88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10:38:13</t>
+          <t>12:20:37</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sell Order</t>
+          <t>Buy Order</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -515,24 +515,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>56.88</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/13/24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10:38:13</t>
+          <t>12:20:37</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sell Order</t>
+          <t>Buy Order</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -542,19 +542,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10:39:25</t>
+          <t>15:22:53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -569,19 +569,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10:39:25</t>
+          <t>15:22:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -596,19 +596,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57.11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10:39:25</t>
+          <t>15:22:53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -623,19 +623,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>57.11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10:39:51</t>
+          <t>15:23:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -650,19 +650,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57.11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10:39:51</t>
+          <t>15:23:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -677,19 +677,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57.11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/14/24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10:39:51</t>
+          <t>15:23:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -704,19 +704,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>57.11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10:40:12</t>
+          <t>17:07:51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -731,19 +731,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57.22</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10:40:12</t>
+          <t>17:07:51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -758,19 +758,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57.22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10:40:12</t>
+          <t>17:07:51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -785,24 +785,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57.22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10:40:19</t>
+          <t>17:08:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sell Order</t>
+          <t>Buy Order</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -812,24 +812,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57.11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10:40:19</t>
+          <t>17:08:02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sell Order</t>
+          <t>Buy Order</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -839,24 +839,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08/08/24</t>
+          <t>08/22/24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:40:19</t>
+          <t>17:08:02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sell Order</t>
+          <t>Buy Order</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
     </row>
